--- a/uploads/excel_format/bank_stmt_format.xlsx
+++ b/uploads/excel_format/bank_stmt_format.xlsx
@@ -12,13 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Bank Statement" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="AriyalurList">Sheet2!$E$2:$E$5</definedName>
     <definedName name="Bhuvanagiri">Sheet2!$H$2:$H$11</definedName>
-    <definedName name="BryanList">#REF!</definedName>
+    <definedName name="BryanList">'Bank Statement'!$A$2:$A$7</definedName>
     <definedName name="ChennaiList">Sheet2!$F$2:$F$16</definedName>
     <definedName name="CoimbatoreList">Sheet2!$G$2:$G$12</definedName>
     <definedName name="CuddaloreList">Sheet2!$H$2:$H$11</definedName>
@@ -34,12 +34,12 @@
     <definedName name="MaheList">Sheet2!$AL$2:$AL$5</definedName>
     <definedName name="NagapattinamList">Sheet2!$Q$2:$Q$9</definedName>
     <definedName name="NamakkalList">Sheet2!$R$2:$R$9</definedName>
-    <definedName name="NameList">#REF!</definedName>
+    <definedName name="NameList">'Bank Statement'!#REF!</definedName>
     <definedName name="NilgirisList">Sheet2!$S$2:$S$7</definedName>
     <definedName name="PerambalurList">Sheet2!$T$2:$T$5</definedName>
     <definedName name="PondicherryList">Sheet2!$C$2:$C$5</definedName>
     <definedName name="PondicherryTalukList">Sheet2!#REF!</definedName>
-    <definedName name="ProductList">#REF!</definedName>
+    <definedName name="ProductList">'Bank Statement'!$A$2:$A$7</definedName>
     <definedName name="PuducherryList">Sheet2!$AM$2:$AM$5</definedName>
     <definedName name="PudukkottaiList">Sheet2!$U$2:$U$13</definedName>
     <definedName name="RamanathapuramList">Sheet2!$V$2:$V$10</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="344">
   <si>
     <t>State</t>
   </si>
@@ -1101,6 +1101,9 @@
   </si>
   <si>
     <t>Balance</t>
+  </si>
+  <si>
+    <t>Narration</t>
   </si>
 </sst>
 </file>
@@ -1124,12 +1127,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1144,9 +1153,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1427,33 +1445,661 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:XFD42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16 16384:16384" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="XFD1" s="5"/>
+    </row>
+    <row r="2" spans="1:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
